--- a/biology/Zoologie/Deerhound/Deerhound.xlsx
+++ b/biology/Zoologie/Deerhound/Deerhound.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  lévrier écossais ou Scottish Deerhound est une race de chien originaire d'Écosse. 
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un Lévrier au poil rude, de grande taille, qui a une corpulence plus forte que le greyhound mais moins importante que l'Irish wolfhound.
 </t>
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette race ancienne, citée dès le IIIe siècle après J-C, est un descendant du lévrier vertagus ou lévrier celte[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race ancienne, citée dès le IIIe siècle après J-C, est un descendant du lévrier vertagus ou lévrier celte.
 « La plus parfaite créature qui soit », c'est ainsi qu'était décrit le deerhound par le poète Walter Scott (1771-1832).
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un lévrier amical, sociable et très fiable. Obéissant et très attaché à son maître, le deerhound aime lui faire plaisir. 
 Toutefois, il est un véritable lévrier qui a été sélectionné au cours des générations pour la poursuite. Par conséquent, la plupart des deerhounds seront impatients de chasser.
@@ -609,7 +627,9 @@
           <t>Soins et santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lévrier écossais vit environ 9 à 13 ans.
 Le jeune a des besoins importants d'exercices pour se développer correctement et être en bonne santé. Cela ne signifie pas qu'il lui faille une grande maison à vivre, mais il doit avoir un accès régulier à un espace de liberté (enclos) pour qu'il puisse se défouler.
@@ -641,7 +661,9 @@
           <t>Sport</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Épreuves de courses sur cynodromes ou racing.
 La poursuite à vue sur leurre (PVL) ou coursing.</t>
@@ -672,7 +694,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>On peut voir des lévriers écossais dans les films suivants :
 Je sais où je vais en 1945 ;
@@ -716,7 +740,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le deerhound Intch
